--- a/manifest_templates/publications_manifest.xlsx
+++ b/manifest_templates/publications_manifest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vchung/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E4FD48-6FFB-044E-8D7A-7991D56DD6EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DE7FF9-5BC9-0344-9387-3A0947917553}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="460" windowWidth="27300" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2740" yWindow="500" windowWidth="24600" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="manifest" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="535">
   <si>
     <t>doi</t>
   </si>
@@ -1637,13 +1637,16 @@
   </si>
   <si>
     <t>Cell Viability Assay</t>
+  </si>
+  <si>
+    <t>Must use controlled-vocabulary terms</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -1778,14 +1781,8 @@
       <name val="SF Mono"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="SF Mono"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1965,6 +1962,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -2134,7 +2137,7 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2490,7 +2493,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB1"/>
+  <dimension ref="A1:AA1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2504,7 +2507,7 @@
     <col min="6" max="7" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2577,43 +2580,18 @@
       <c r="X1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB1" s="5"/>
+      <c r="Y1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{D453FF82-48B9-0D40-9961-DC2622836FD4}">
-          <x14:formula1>
-            <xm:f>standard_terms!$B$2:$B$193</xm:f>
-          </x14:formula1>
-          <xm:sqref>Y2:Y1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{05B86BDD-800B-EF45-AB70-173E09FD1DAE}">
-          <x14:formula1>
-            <xm:f>standard_terms!$B$331:$B$480</xm:f>
-          </x14:formula1>
-          <xm:sqref>Z2:Z1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{C4BB453C-38F9-CD4F-B5AC-E69F763AD2D5}">
-          <x14:formula1>
-            <xm:f>standard_terms!$B$194:$B$330</xm:f>
-          </x14:formula1>
-          <xm:sqref>AA2:AA1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2830,7 +2808,9 @@
       <c r="B22" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="23" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
@@ -2839,7 +2819,9 @@
       <c r="B23" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="24" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
@@ -2848,7 +2830,9 @@
       <c r="B24" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>534</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -2860,9 +2844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C480"/>
   <sheetViews>
-    <sheetView topLeftCell="A335" workbookViewId="0">
-      <selection activeCell="B472" sqref="B472"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
